--- a/tools/反切上字與聲母對映表.xlsx
+++ b/tools/反切上字與聲母對映表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663CAC30-D30A-4C54-8994-2628CE2793BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BBE05A-5E6D-4F96-BCE9-FF156B0D5342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1500" windowWidth="31455" windowHeight="10890" xr2:uid="{5D06E5C6-5959-4DA0-BB2D-0D1C2D700418}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D06E5C6-5959-4DA0-BB2D-0D1C2D700418}"/>
   </bookViews>
   <sheets>
     <sheet name="反切上字表" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>清濁</t>
   </si>
   <si>
-    <t>反切上字</t>
-  </si>
-  <si>
     <t>脣音</t>
   </si>
   <si>
@@ -438,6 +435,10 @@
   </si>
   <si>
     <t>如 而 汝 人 儒 耳 兒 仍</t>
+  </si>
+  <si>
+    <t>切語上字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -843,7 +844,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
@@ -875,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -883,22 +884,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -906,22 +907,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -929,22 +930,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -952,22 +953,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -975,22 +976,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -998,22 +999,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -1021,22 +1022,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -1044,22 +1045,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -1067,22 +1068,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -1090,22 +1091,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
@@ -1113,22 +1114,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -1136,22 +1137,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -1159,22 +1160,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -1182,22 +1183,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -1205,22 +1206,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
@@ -1228,22 +1229,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
@@ -1251,22 +1252,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
@@ -1274,22 +1275,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
@@ -1297,22 +1298,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
@@ -1320,22 +1321,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -1343,22 +1344,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
@@ -1366,22 +1367,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
@@ -1389,22 +1390,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
@@ -1412,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
@@ -1435,22 +1436,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
@@ -1458,22 +1459,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
@@ -1481,22 +1482,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
@@ -1504,22 +1505,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
@@ -1527,22 +1528,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.5">
@@ -1550,22 +1551,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
@@ -1573,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
@@ -1596,22 +1597,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
@@ -1619,22 +1620,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.5">
@@ -1642,19 +1643,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.5">
@@ -1662,22 +1663,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.5">
@@ -1685,22 +1686,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
@@ -1708,22 +1709,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.5">
@@ -1731,22 +1732,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
